--- a/Firmware/v1.2 Stable - Hard v0.3 to v0.4/LCD - EEPROM - Layout - Firm v12.xlsx
+++ b/Firmware/v1.2 Stable - Hard v0.3 to v0.4/LCD - EEPROM - Layout - Firm v12.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="97">
   <si>
     <t>01</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -772,10 +778,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AF119"/>
+  <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="Z143" sqref="Z143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,6 +5088,1282 @@
       </c>
       <c r="T119" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O122" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S122" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P123" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U123" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M124" s="6"/>
+      <c r="U124" s="6"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O127" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q127" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R127" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S127" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T127" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U127" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+      <c r="U128" s="6"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O129" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P129" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T129" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U129" s="6"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O130" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P130" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S130" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T130" s="6"/>
+      <c r="U130" s="6"/>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+      <c r="U133" s="6"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O134" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q134" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R134" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S134" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T134" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U134" s="6"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L139" s="6"/>
+      <c r="U139" s="6"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+      <c r="U140" s="6"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q145" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U145" s="6"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="6"/>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P147" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q147" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R147" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S147" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T147" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
